--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Rheumatoid Athritis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Rheumatoid Athritis_gen_overall.xlsx
@@ -467,17 +467,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a classic presentation of Rheumatoid Arthritis, as it typically affects joints symmetrically.</t>
+          <t>Symmetrical joint involvement is a hallmark of Rheumatoid Arthritis, distinguishing it from other types of arthritis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joint pain that improves with activity</t>
+          <t>Joint pain without swelling</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is more characteristic of osteoarthritis rather than Rheumatoid Arthritis, where pain typically worsens with activity.</t>
+          <t>Rheumatoid Arthritis typically presents with both pain and swelling; absence of swelling suggests another diagnosis.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prolonged morning stiffness is a hallmark symptom of Rheumatoid Arthritis, indicating inflammation.</t>
+          <t>Prolonged morning stiffness is characteristic of inflammatory arthritis like Rheumatoid Arthritis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Localized joint pain without swelling</t>
+          <t>Pain that improves with rest</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Localized pain without swelling is less consistent with Rheumatoid Arthritis, which usually presents with swelling.</t>
+          <t>Rheumatoid Arthritis pain usually persists despite rest, unlike osteoarthritis where rest alleviates symptoms.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of fatigue and malaise</t>
+          <t>Small joint involvement, particularly in the hands and feet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Systemic symptoms like fatigue are common in Rheumatoid Arthritis due to the inflammatory process.</t>
+          <t>Rheumatoid Arthritis often affects small joints, which is less common in other types of arthritis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of systemic symptoms</t>
+          <t>Acute onset of symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The lack of systemic symptoms such as fatigue or fever suggests a lower likelihood of Rheumatoid Arthritis.</t>
+          <t>Rheumatoid Arthritis typically has a gradual onset, whereas an acute onset may suggest another condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joint deformities or nodules</t>
+          <t>Fatigue and general malaise</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The development of deformities or subcutaneous nodules is indicative of chronic Rheumatoid Arthritis.</t>
+          <t>Systemic symptoms such as fatigue are common in Rheumatoid Arthritis due to its inflammatory nature.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint pain that is transient and resolves quickly</t>
+          <t>Pain localized to a single joint</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Transient joint pain is more indicative of other conditions and less consistent with the chronic nature of Rheumatoid Arthritis.</t>
+          <t>Rheumatoid Arthritis usually involves multiple joints, so single joint involvement is less typical.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flare-ups triggered by stress or illness</t>
+          <t>Onset of symptoms between ages 30 and 50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rheumatoid Arthritis often has exacerbations that can be triggered by external factors.</t>
+          <t>Rheumatoid Arthritis commonly begins in middle adulthood, which can help differentiate it from other conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Symptoms resolving within a few days</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history reduces the likelihood of developing Rheumatoid Arthritis, which has a genetic component.</t>
+          <t>Rheumatoid Arthritis symptoms are chronic and persistent, unlike transient conditions.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of autoimmune diseases</t>
+          <t>History of morning stiffness lasting more than one hour</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of other autoimmune diseases are at a higher risk for developing Rheumatoid Arthritis.</t>
+          <t>This is a classic symptom of Rheumatoid Arthritis, indicating joint inflammation and is more specific to RA than other types of arthritis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of joint pain or swelling</t>
+          <t>History of osteoarthritis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of joint pain or swelling is a strong indicator against the presence of Rheumatoid Arthritis.</t>
+          <t>Osteoarthritis is a different type of arthritis with distinct pathophysiology and is not typically associated with RA.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of inflammatory arthritis</t>
+          <t>Previous diagnosis of rheumatoid nodules</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A prior diagnosis of inflammatory arthritis increases the likelihood of having Rheumatoid Arthritis.</t>
+          <t>Rheumatoid nodules are subcutaneous nodules that are strongly associated with Rheumatoid Arthritis and are rarely seen in other conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous diagnosis of any rheumatologic conditions</t>
+          <t>Long-term use of non-steroidal anti-inflammatory drugs (NSAIDs) without DMARDs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of any prior rheumatologic diagnoses suggests a lower likelihood of developing Rheumatoid Arthritis.</t>
+          <t>NSAIDs are used for symptomatic relief in various conditions, but the absence of DMARDs suggests a non-RA diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of DMARDs (Disease-Modifying Antirheumatic Drugs)</t>
+          <t>Past use of disease-modifying antirheumatic drugs (DMARDs)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Current or past treatment with DMARDs is commonly associated with Rheumatoid Arthritis management.</t>
+          <t>DMARDs are specifically used to treat Rheumatoid Arthritis and their use suggests a previous diagnosis of RA.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of NSAIDs (Non-Steroidal Anti-Inflammatory Drugs)</t>
+          <t>History of gout</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not using NSAIDs, which are commonly used for arthritis pain, may indicate a lack of inflammatory joint disease.</t>
+          <t>Gout is a different form of arthritis characterized by uric acid crystal deposition, not typically associated with RA.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis</t>
+          <t>History of symmetrical joint swelling</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of Rheumatoid Arthritis significantly increases the risk of developing the condition.</t>
+          <t>Symmetrical joint involvement is characteristic of Rheumatoid Arthritis, distinguishing it from other forms of arthritis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>Previous joint surgery due to trauma</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of family history of autoimmune diseases decreases the likelihood of Rheumatoid Arthritis.</t>
+          <t>Joint issues due to trauma are not indicative of RA, which is an autoimmune condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of joint surgeries related to arthritis</t>
+          <t>Family history of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Previous joint surgeries due to arthritis symptoms may indicate a chronic inflammatory process consistent with Rheumatoid Arthritis.</t>
+          <t>A family history of RA increases the likelihood of the disease due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of systemic symptoms (fever, fatigue)</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of systemic symptoms often associated with inflammatory conditions makes Rheumatoid Arthritis less likely.</t>
+          <t>Fibromyalgia is a condition with widespread pain and tenderness, not associated with the inflammatory joint changes seen in RA.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Family history of rheumatoid arthritis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases, including rheumatoid arthritis, increases the likelihood of developing the condition due to genetic predisposition.</t>
+          <t>A family history of rheumatoid arthritis significantly increases the risk of developing the condition due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of rheumatoid arthritis</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of family history reduces the likelihood of genetic predisposition to rheumatoid arthritis, making the diagnosis less likely.</t>
+          <t>The absence of a family history of autoimmune diseases reduces the likelihood of rheumatoid arthritis, as genetic predisposition plays a role.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for developing rheumatoid arthritis, as it can trigger immune responses that lead to the disease.</t>
+          <t>Rheumatoid arthritis is more common in females, suggesting a gender-related genetic or hormonal influence.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Active lifestyle with regular exercise</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An active lifestyle and regular exercise are associated with lower risk of developing rheumatoid arthritis, suggesting a lower likelihood of the condition.</t>
+          <t>Rheumatoid arthritis is less common in males, which decreases the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Female gender</t>
+          <t>Smoking history</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis is more prevalent in females, indicating that gender plays a significant role in the likelihood of developing the condition.</t>
+          <t>Smoking is a known risk factor for rheumatoid arthritis, potentially due to its effects on the immune system.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of smoking</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not having a history of smoking decreases the risk of developing rheumatoid arthritis, as smoking is a known risk factor.</t>
+          <t>Not having a history of smoking reduces the risk of rheumatoid arthritis, as smoking is a known risk factor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Age of onset in family members</t>
+          <t>Early life exposure to environmental pollutants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>If family members have developed rheumatoid arthritis at a younger age, it suggests a stronger genetic component, increasing the likelihood of the diagnosis.</t>
+          <t>Exposure to certain environmental pollutants in early life has been associated with an increased risk of developing rheumatoid arthritis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Low-stress job</t>
+          <t>Active lifestyle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Working in a low-stress environment may reduce the risk of autoimmune diseases, including rheumatoid arthritis, indicating a lower likelihood of the diagnosis.</t>
+          <t>An active lifestyle is associated with a lower risk of developing rheumatoid arthritis, possibly due to better overall health and reduced inflammation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Participation in high-stress occupations</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High-stress environments can exacerbate autoimmune conditions, including rheumatoid arthritis, making it more likely for individuals in such occupations to develop the disease.</t>
+          <t>Obesity is associated with an increased risk of rheumatoid arthritis, possibly due to inflammatory processes related to excess adipose tissue.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of other autoimmune diseases</t>
+          <t>Healthy weight</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of other autoimmune diseases in the patient's history suggests a lower likelihood of developing rheumatoid arthritis.</t>
+          <t>Maintaining a healthy weight is associated with a lower risk of rheumatoid arthritis, as obesity is a known risk factor.</t>
         </is>
       </c>
     </row>
@@ -920,105 +920,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is highly characteristic of Rheumatoid Arthritis, as it typically affects joints symmetrically, particularly in the hands and feet.</t>
+          <t>Symmetrical joint swelling is a hallmark of Rheumatoid Arthritis (RA) and is more commonly observed in RA than in other types of arthritis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal joint examination without swelling or tenderness</t>
+          <t>Absence of joint swelling</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal examination suggests that there is no inflammatory process occurring, making Rheumatoid Arthritis less likely.</t>
+          <t>The absence of joint swelling is less consistent with RA, which typically presents with swollen joints.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Morning stiffness lasting more than 30 minutes</t>
+          <t>Morning stiffness lasting more than 1 hour</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prolonged morning stiffness is a common symptom in Rheumatoid Arthritis, indicating inflammation in the joints.</t>
+          <t>Prolonged morning stiffness is characteristic of RA and is less common in other joint disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of systemic symptoms such as fever or fatigue</t>
+          <t>Asymmetrical joint involvement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The lack of systemic symptoms typically associated with inflammatory conditions makes Rheumatoid Arthritis less probable.</t>
+          <t>RA typically presents with symmetrical joint involvement, so asymmetry suggests another diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Deformities in the hands or feet</t>
+          <t>Rheumatoid nodules</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joint deformities, such as ulnar deviation or swan-neck deformities, are indicative of chronic Rheumatoid Arthritis.</t>
+          <t>The presence of rheumatoid nodules is strongly associated with RA and is rarely seen in other conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No joint deformities present</t>
+          <t>Lack of morning stiffness</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of deformities suggests that there has been no chronic joint damage, which is common in Rheumatoid Arthritis.</t>
+          <t>RA is characterized by morning stiffness, so its absence makes RA less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tenderness on palpation of affected joints</t>
+          <t>Ulnar deviation of the fingers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tenderness in joints is a common objective finding in Rheumatoid Arthritis, reflecting inflammation.</t>
+          <t>Ulnar deviation is a specific deformity associated with chronic RA and indicates long-standing disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Full range of motion in all joints</t>
+          <t>No tenderness or warmth in joints</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A full range of motion indicates that there is no significant joint involvement, which is inconsistent with Rheumatoid Arthritis.</t>
+          <t>The absence of tenderness or warmth in joints suggests a lack of active inflammation, which is atypical for RA.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reduced range of motion in affected joints</t>
+          <t>Joint tenderness and warmth</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Limited range of motion due to joint swelling and pain is frequently observed in patients with Rheumatoid Arthritis.</t>
+          <t>Tender and warm joints are indicative of active inflammation, which is a common feature of RA.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Presence of Heberden's nodes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stable vital signs without signs of systemic inflammation suggest that an inflammatory condition like Rheumatoid Arthritis is unlikely.</t>
+          <t>Heberden's nodes are associated with osteoarthritis, not RA, and their presence suggests an alternative diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1071,29 +1071,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The presence of RF is commonly found in patients with Rheumatoid Arthritis, indicating an autoimmune response.</t>
+          <t>A positive RF is commonly found in patients with Rheumatoid Arthritis and indicates the presence of autoantibodies.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negative Anti-Citrullinated Protein Antibodies (ACPA)</t>
+          <t>Negative Anti-Citrullinated Protein Antibody (ACPA)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A negative ACPA test significantly reduces the likelihood of Rheumatoid Arthritis, as it is highly specific for the disease.</t>
+          <t>A negative ACPA test reduces the likelihood of Rheumatoid Arthritis due to its high specificity for the disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elevated Anti-Citrullinated Protein Antibodies (ACPA)</t>
+          <t>Positive Anti-Citrullinated Protein Antibody (ACPA)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACPA is highly specific for Rheumatoid Arthritis and is often present in affected individuals.</t>
+          <t>ACPA is highly specific for Rheumatoid Arthritis and is a strong indicator of the disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,19 +1103,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal ESR suggests the absence of significant inflammation, making Rheumatoid Arthritis less likely.</t>
+          <t>A normal ESR suggests the absence of significant inflammation, which is less consistent with active Rheumatoid Arthritis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Increased Erythrocyte Sedimentation Rate (ESR)</t>
+          <t>Elevated Erythrocyte Sedimentation Rate (ESR)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An elevated ESR indicates inflammation, which is frequently seen in patients with Rheumatoid Arthritis.</t>
+          <t>An elevated ESR indicates inflammation, which is common in Rheumatoid Arthritis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,51 +1125,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal CRP level indicates low inflammation, which is inconsistent with active Rheumatoid Arthritis.</t>
+          <t>A normal CRP level indicates a lack of systemic inflammation, arguing against active Rheumatoid Arthritis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Increased C-Reactive Protein (CRP)</t>
+          <t>Elevated C-Reactive Protein (CRP)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CRP is a marker of inflammation and is often elevated in patients with active Rheumatoid Arthritis.</t>
+          <t>CRP is a marker of inflammation and is often elevated in active Rheumatoid Arthritis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative Rheumatoid Factor (RF)</t>
+          <t>Absence of Joint Erosions on X-ray</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative RF test can indicate that Rheumatoid Arthritis is unlikely, as many patients with the condition test positive.</t>
+          <t>The absence of joint erosions on X-ray suggests a lack of chronic joint damage, which is less typical of Rheumatoid Arthritis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joint Imaging showing erosions</t>
+          <t>Joint Erosions on X-ray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Imaging studies may reveal erosive changes in joints, which are characteristic of chronic Rheumatoid Arthritis.</t>
+          <t>X-ray findings of joint erosions are indicative of chronic inflammation and damage seen in Rheumatoid Arthritis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Imaging showing no erosions</t>
+          <t>Negative Rheumatoid Factor (RF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of erosive changes on imaging suggests that chronic joint damage typical of Rheumatoid Arthritis is not present.</t>
+          <t>A negative RF test reduces the likelihood of Rheumatoid Arthritis, although it is not definitive due to its lower specificity.</t>
         </is>
       </c>
     </row>
